--- a/script/excel/bsi/settimana_bsi.xlsx
+++ b/script/excel/bsi/settimana_bsi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\testIOT\excel\bsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\IOT\Biblio_IoT\script\excel\bsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831AD626-438A-4F43-9042-67A037429911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E076C21-884D-42CB-BF30-345E7E354AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="6" r:id="rId1"/>
@@ -26,10 +26,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">Tuesday!$A$1:$BD$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Wednesday!$A$1:$BD$14</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -874,8 +884,8 @@
   </sheetPr>
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView showRuler="0" topLeftCell="C2" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AS13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,73 +2003,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="65">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -2074,7 +2017,7 @@
   <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3268,92 +3211,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="84">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -3368,7 +3225,7 @@
   <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4570,94 +4427,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="86">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -4672,7 +4441,7 @@
   <dimension ref="A1:BD12"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="C2" sqref="C2:AV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5942,111 +5711,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="103">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
@@ -6060,8 +5724,8 @@
   </sheetPr>
   <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7167,70 +6831,6 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="62">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AS12:AT12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/script/excel/bsi/settimana_bsi.xlsx
+++ b/script/excel/bsi/settimana_bsi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\testIOT\excel\bsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Documents/Arduino/Biblio_IoT/script/excel/bsi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831AD626-438A-4F43-9042-67A037429911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C388B-3E11-E84C-8603-DE33EC0E0DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Monday" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Friday!$A$1:$BD$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Friday!$A$1:$AQ$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Monday!$A$1:$BD$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Thursday!$A$1:$BD$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Tuesday!$A$1:$BD$14</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="118">
   <si>
     <t>07:00</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,16 +576,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,284 +872,245 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BD12"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT5" sqref="AT5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="43" width="9.1640625" style="1" customWidth="1"/>
+    <col min="44" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:43">
       <c r="C1" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43" ht="70" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="3">
         <v>200</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="S2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="U2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="X2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="Y2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="Z2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AA2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AB2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AC2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AD2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AE2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AF2" s="7" t="s">
         <v>114</v>
       </c>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1157,21 +1118,8 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:43" ht="70" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -1182,58 +1130,58 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="H3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="I3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="R3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="S3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="U3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="V3" s="7" t="s">
         <v>81</v>
       </c>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -1251,21 +1199,8 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:43" ht="70" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -1276,106 +1211,93 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5" t="s">
+      <c r="G4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="I4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="J4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="P4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="S4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="T4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="U4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="V4" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="5" t="s">
+      <c r="AE4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AF4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AG4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AH4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AI4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AK4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AL4" s="7" t="s">
         <v>115</v>
       </c>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:43" ht="70" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1406,11 +1328,11 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="6"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="8"/>
+      <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -1423,21 +1345,8 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:43" ht="70" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1485,21 +1394,8 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:43" ht="70" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1510,58 +1406,58 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5" t="s">
+      <c r="G7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="H7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="K7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="M7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="N7" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="O7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="P7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="Q7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="R7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="S7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="T7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="U7" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="V7" s="7" t="s">
         <v>116</v>
       </c>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -1579,9 +1475,1198 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
+    </row>
+    <row r="8" spans="1:43" ht="70" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+    </row>
+    <row r="9" spans="1:43" ht="70" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+    </row>
+    <row r="10" spans="1:43" ht="70" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+    </row>
+    <row r="11" spans="1:43" ht="70" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+    </row>
+    <row r="12" spans="1:43" ht="70" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="65">
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BFCF80-D090-4208-B81A-02CB3F9572DA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BD12"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="70" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+    </row>
+    <row r="3" spans="1:56" ht="70" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+    </row>
+    <row r="4" spans="1:56" ht="70" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+    </row>
+    <row r="5" spans="1:56" ht="70" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+    </row>
+    <row r="6" spans="1:56" ht="70" customHeight="1">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+    </row>
+    <row r="7" spans="1:56" ht="70" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT7" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
@@ -1593,7 +2678,7 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -1608,54 +2693,38 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>88</v>
-      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -1687,7 +2756,7 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -1749,7 +2818,7 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -1760,54 +2829,70 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="S10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
+      <c r="AE10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL10" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
@@ -1827,7 +2912,7 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -1842,72 +2927,80 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>94</v>
+      <c r="K11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AF11" s="5" t="s">
+      <c r="AF11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AG11" s="5" t="s">
+      <c r="AG11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AH11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="AI11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="5" t="s">
+      <c r="AJ11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AL11" s="7" t="s">
         <v>106</v>
       </c>
       <c r="AM11" s="4"/>
@@ -1929,1282 +3022,7 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="3">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="65">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BFCF80-D090-4208-B81A-02CB3F9572DA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BD12"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-    </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-    </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-    </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="W5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="X5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z5" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-    </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="3">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-    </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-    </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="3">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-    </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-    </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="3">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="AX10" s="4"/>
-      <c r="AY10" s="4"/>
-      <c r="AZ10" s="4"/>
-      <c r="BA10" s="4"/>
-      <c r="BB10" s="4"/>
-      <c r="BC10" s="4"/>
-      <c r="BD10" s="4"/>
-    </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3">
-        <v>200</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL11" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="AX11" s="4"/>
-      <c r="AY11" s="4"/>
-      <c r="AZ11" s="4"/>
-      <c r="BA11" s="4"/>
-      <c r="BB11" s="4"/>
-      <c r="BC11" s="4"/>
-      <c r="BD11" s="4"/>
-    </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -3269,18 +3087,62 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ3:AR3"/>
     <mergeCell ref="AS3:AT3"/>
     <mergeCell ref="K4:L4"/>
@@ -3297,62 +3159,18 @@
     <mergeCell ref="AK3:AL3"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -3371,14 +3189,14 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +3360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -3553,86 +3371,86 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AK2" s="4"/>
@@ -3656,7 +3474,7 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -3671,80 +3489,80 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="7" t="s">
         <v>98</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AL3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="AM3" s="4"/>
@@ -3766,7 +3584,7 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -3781,104 +3599,104 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AK4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AL4" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AM4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AO4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AP4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AQ4" s="5" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AR4" s="5" t="s">
+      <c r="AR4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AS4" s="5" t="s">
+      <c r="AS4" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="AT4" s="5" t="s">
+      <c r="AT4" s="7" t="s">
         <v>100</v>
       </c>
       <c r="AU4" s="4"/>
@@ -3892,7 +3710,7 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -3954,7 +3772,7 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -3969,28 +3787,28 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="7" t="s">
         <v>101</v>
       </c>
       <c r="S6" s="4"/>
@@ -4032,7 +3850,7 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -4055,80 +3873,80 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="7" t="s">
         <v>102</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AG7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AH7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AI7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AJ7" s="5" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AK7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AL7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="5" t="s">
+      <c r="AM7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="5" t="s">
+      <c r="AN7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AO7" s="5" t="s">
+      <c r="AO7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AP7" s="5" t="s">
+      <c r="AP7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AQ7" s="5" t="s">
+      <c r="AQ7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AR7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AS7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AT7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="AU7" s="4"/>
@@ -4142,7 +3960,7 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -4177,34 +3995,34 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="6" t="s">
+      <c r="AE8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AF8" s="6" t="s">
+      <c r="AF8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="6" t="s">
+      <c r="AG8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AH8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AI8" s="6" t="s">
+      <c r="AI8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="6" t="s">
+      <c r="AJ8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AK8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="6" t="s">
+      <c r="AL8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AM8" s="6" t="s">
+      <c r="AM8" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AN8" s="6" t="s">
+      <c r="AN8" s="8" t="s">
         <v>104</v>
       </c>
       <c r="AO8" s="4"/>
@@ -4224,7 +4042,7 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -4286,7 +4104,7 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -4309,56 +4127,56 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Y10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AG10" s="5" t="s">
+      <c r="AG10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AH10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AI10" s="5" t="s">
+      <c r="AI10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AK10" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="AL10" s="5" t="s">
+      <c r="AL10" s="7" t="s">
         <v>105</v>
       </c>
       <c r="AM10" s="4"/>
@@ -4380,7 +4198,7 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -4395,104 +4213,104 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AF11" s="5" t="s">
+      <c r="AF11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AG11" s="5" t="s">
+      <c r="AG11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AH11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="AI11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="5" t="s">
+      <c r="AJ11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AL11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="AM11" s="5" t="s">
+      <c r="AM11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AN11" s="5" t="s">
+      <c r="AN11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AO11" s="5" t="s">
+      <c r="AO11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AP11" s="5" t="s">
+      <c r="AP11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AQ11" s="5" t="s">
+      <c r="AQ11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AR11" s="5" t="s">
+      <c r="AR11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AS11" s="5" t="s">
+      <c r="AS11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="AT11" s="5" t="s">
+      <c r="AT11" s="7" t="s">
         <v>107</v>
       </c>
       <c r="AU11" s="4"/>
@@ -4506,7 +4324,7 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -4571,12 +4389,70 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="86">
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -4593,70 +4469,12 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -4675,14 +4493,14 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4846,7 +4664,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -4857,116 +4675,116 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="7" t="s">
         <v>77</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AK2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AM2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AN2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AO2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="5" t="s">
+      <c r="AR2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="AT2" s="5" t="s">
+      <c r="AT2" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AU2" s="4"/>
@@ -4980,7 +4798,7 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -4995,104 +4813,104 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="5" t="s">
+      <c r="X3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="7" t="s">
         <v>81</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AL3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="AM3" s="5" t="s">
+      <c r="AM3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AN3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="5" t="s">
+      <c r="AO3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="5" t="s">
+      <c r="AP3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="5" t="s">
+      <c r="AQ3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="5" t="s">
+      <c r="AR3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="5" t="s">
+      <c r="AS3" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="AT3" s="5" t="s">
+      <c r="AT3" s="7" t="s">
         <v>82</v>
       </c>
       <c r="AU3" s="4"/>
@@ -5106,7 +4924,7 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -5121,80 +4939,80 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="U4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="5" t="s">
+      <c r="Y4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z4" s="7" t="s">
         <v>84</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AK4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AL4" s="7" t="s">
         <v>85</v>
       </c>
       <c r="AM4" s="4"/>
@@ -5216,7 +5034,7 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -5251,40 +5069,40 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="6" t="s">
+      <c r="AE5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" s="6" t="s">
+      <c r="AF5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AG5" s="6" t="s">
+      <c r="AG5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AH5" s="6" t="s">
+      <c r="AH5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AI5" s="6" t="s">
+      <c r="AI5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5" s="6" t="s">
+      <c r="AJ5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AK5" s="6" t="s">
+      <c r="AK5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AL5" s="6" t="s">
+      <c r="AL5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" s="6" t="s">
+      <c r="AM5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AN5" s="6" t="s">
+      <c r="AN5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AO5" s="6" t="s">
+      <c r="AO5" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AP5" s="6" t="s">
+      <c r="AP5" s="8" t="s">
         <v>86</v>
       </c>
       <c r="AQ5" s="4"/>
@@ -5302,7 +5120,7 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -5364,7 +5182,7 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -5379,80 +5197,80 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="U7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="5" t="s">
+      <c r="V7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="W7" s="5" t="s">
+      <c r="W7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="X7" s="5" t="s">
+      <c r="X7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="7" t="s">
         <v>88</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="5" t="s">
+      <c r="AE7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AF7" s="5" t="s">
+      <c r="AF7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AG7" s="5" t="s">
+      <c r="AG7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" s="5" t="s">
+      <c r="AH7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AI7" s="5" t="s">
+      <c r="AI7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AJ7" s="5" t="s">
+      <c r="AJ7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AK7" s="5" t="s">
+      <c r="AK7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AL7" s="5" t="s">
+      <c r="AL7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="AM7" s="4"/>
@@ -5474,7 +5292,7 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -5489,28 +5307,28 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="S8" s="4"/>
@@ -5525,40 +5343,40 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="5" t="s">
+      <c r="AE8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AF8" s="5" t="s">
+      <c r="AF8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG8" s="5" t="s">
+      <c r="AG8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AH8" s="5" t="s">
+      <c r="AH8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="5" t="s">
+      <c r="AI8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AJ8" s="5" t="s">
+      <c r="AJ8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AK8" s="5" t="s">
+      <c r="AK8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AL8" s="5" t="s">
+      <c r="AL8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AM8" s="5" t="s">
+      <c r="AM8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AN8" s="5" t="s">
+      <c r="AN8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AO8" s="5" t="s">
+      <c r="AO8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AP8" s="5" t="s">
+      <c r="AP8" s="7" t="s">
         <v>90</v>
       </c>
       <c r="AQ8" s="4"/>
@@ -5576,7 +5394,7 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -5638,7 +5456,7 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -5653,76 +5471,76 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="7" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="W10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="X10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Y10" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="7" t="s">
         <v>91</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="5" t="s">
+      <c r="AE10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AF10" s="5" t="s">
+      <c r="AF10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AG10" s="5" t="s">
+      <c r="AG10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AH10" s="5" t="s">
+      <c r="AH10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AI10" s="5" t="s">
+      <c r="AI10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AJ10" s="5" t="s">
+      <c r="AJ10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AK10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AL10" s="5" t="s">
+      <c r="AL10" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AM10" s="4"/>
@@ -5744,7 +5562,7 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -5759,112 +5577,112 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AA11" s="5" t="s">
+      <c r="AA11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AC11" s="5" t="s">
+      <c r="AC11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AD11" s="5" t="s">
+      <c r="AD11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="AE11" s="5" t="s">
+      <c r="AE11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="5" t="s">
+      <c r="AF11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AG11" s="5" t="s">
+      <c r="AG11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AH11" s="5" t="s">
+      <c r="AH11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AI11" s="5" t="s">
+      <c r="AI11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AJ11" s="5" t="s">
+      <c r="AJ11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AK11" s="5" t="s">
+      <c r="AK11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AL11" s="5" t="s">
+      <c r="AL11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="AM11" s="5" t="s">
+      <c r="AM11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AN11" s="5" t="s">
+      <c r="AN11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AO11" s="5" t="s">
+      <c r="AO11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AP11" s="5" t="s">
+      <c r="AP11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AQ11" s="5" t="s">
+      <c r="AQ11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AR11" s="5" t="s">
+      <c r="AR11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AS11" s="5" t="s">
+      <c r="AS11" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="AT11" s="5" t="s">
+      <c r="AT11" s="7" t="s">
         <v>96</v>
       </c>
       <c r="AU11" s="4"/>
@@ -5878,7 +5696,7 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -5943,24 +5761,69 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="103">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -5983,69 +5846,24 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -6064,14 +5882,14 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6235,97 +6053,97 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" ht="70" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>200</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="W2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="X2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Y2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="7" t="s">
         <v>56</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="5" t="s">
+      <c r="AE2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AF2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AG2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AI2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AJ2" s="7" t="s">
         <v>57</v>
       </c>
       <c r="AK2" s="4"/>
@@ -6349,11 +6167,11 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" ht="70" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>100</v>
       </c>
       <c r="C3" s="4"/>
@@ -6364,28 +6182,28 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="7" t="s">
         <v>59</v>
       </c>
       <c r="S3" s="4"/>
@@ -6400,28 +6218,28 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="5" t="s">
+      <c r="AE3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="5" t="s">
+      <c r="AF3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="5" t="s">
+      <c r="AG3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="5" t="s">
+      <c r="AH3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="5" t="s">
+      <c r="AI3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="5" t="s">
+      <c r="AJ3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="5" t="s">
+      <c r="AK3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="5" t="s">
+      <c r="AL3" s="7" t="s">
         <v>60</v>
       </c>
       <c r="AM3" s="4"/>
@@ -6443,11 +6261,11 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" ht="70" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>100</v>
       </c>
       <c r="C4" s="4"/>
@@ -6478,40 +6296,40 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="5" t="s">
+      <c r="AE4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="5" t="s">
+      <c r="AG4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="5" t="s">
+      <c r="AH4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="5" t="s">
+      <c r="AI4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="5" t="s">
+      <c r="AJ4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AK4" s="5" t="s">
+      <c r="AK4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AL4" s="5" t="s">
+      <c r="AL4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AM4" s="5" t="s">
+      <c r="AM4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="5" t="s">
+      <c r="AN4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AO4" s="5" t="s">
+      <c r="AO4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AP4" s="5" t="s">
+      <c r="AP4" s="7" t="s">
         <v>62</v>
       </c>
       <c r="AQ4" s="4"/>
@@ -6529,11 +6347,11 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" ht="70" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>150</v>
       </c>
       <c r="C5" s="4"/>
@@ -6591,11 +6409,11 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" ht="70" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>21</v>
       </c>
       <c r="C6" s="4"/>
@@ -6634,28 +6452,28 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="5" t="s">
+      <c r="AM6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AO6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AQ6" s="5" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AR6" s="5" t="s">
+      <c r="AR6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AT6" s="5" t="s">
+      <c r="AT6" s="7" t="s">
         <v>65</v>
       </c>
       <c r="AU6" s="4"/>
@@ -6669,11 +6487,11 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" ht="70" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="5">
         <v>36</v>
       </c>
       <c r="C7" s="4"/>
@@ -6731,11 +6549,11 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" ht="70" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="5">
         <v>40</v>
       </c>
       <c r="C8" s="4"/>
@@ -6754,28 +6572,28 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="U8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="V8" s="5" t="s">
+      <c r="V8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="W8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="X8" s="5" t="s">
+      <c r="X8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="AA8" s="4"/>
@@ -6809,11 +6627,11 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" ht="70" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="5">
         <v>20</v>
       </c>
       <c r="C9" s="4"/>
@@ -6871,11 +6689,11 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" ht="70" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="5">
         <v>41</v>
       </c>
       <c r="C10" s="4"/>
@@ -6892,22 +6710,22 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="U10" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="5" t="s">
+      <c r="V10" s="7" t="s">
         <v>71</v>
       </c>
       <c r="W10" s="4"/>
@@ -6945,11 +6763,11 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" ht="70" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="5">
         <v>200</v>
       </c>
       <c r="C11" s="4"/>
@@ -6968,28 +6786,28 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="U11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="5" t="s">
+      <c r="V11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="5" t="s">
+      <c r="W11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="5" t="s">
+      <c r="X11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" s="7" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="4"/>
@@ -7023,135 +6841,135 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" ht="70" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="5">
         <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="K12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="6" t="s">
+      <c r="M12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="P12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="Q12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="R12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="T12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="W12" s="6" t="s">
+      <c r="W12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="X12" s="6" t="s">
+      <c r="X12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="6" t="s">
+      <c r="Y12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="Z12" s="6" t="s">
+      <c r="Z12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AA12" s="6" t="s">
+      <c r="AA12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AB12" s="6" t="s">
+      <c r="AB12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AE12" s="6" t="s">
+      <c r="AE12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AF12" s="6" t="s">
+      <c r="AF12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AG12" s="6" t="s">
+      <c r="AG12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AH12" s="6" t="s">
+      <c r="AH12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AI12" s="6" t="s">
+      <c r="AI12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AJ12" s="6" t="s">
+      <c r="AJ12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AK12" s="6" t="s">
+      <c r="AK12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AL12" s="6" t="s">
+      <c r="AL12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AM12" s="6" t="s">
+      <c r="AM12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AN12" s="6" t="s">
+      <c r="AN12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AO12" s="6" t="s">
+      <c r="AO12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AP12" s="6" t="s">
+      <c r="AP12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AQ12" s="6" t="s">
+      <c r="AQ12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AR12" s="6" t="s">
+      <c r="AR12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AS12" s="6" t="s">
+      <c r="AS12" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AT12" s="6" t="s">
+      <c r="AT12" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AU12" s="4"/>
@@ -7168,46 +6986,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="62">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="G12:H12"/>
@@ -7224,12 +7008,46 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
-    <mergeCell ref="AS12:AT12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/script/excel/bsi/settimana_bsi.xlsx
+++ b/script/excel/bsi/settimana_bsi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mat/Documents/Arduino/Biblio_IoT/script/excel/bsi/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\testIOT\excel\bsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9C388B-3E11-E84C-8603-DE33EC0E0DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831AD626-438A-4F43-9042-67A037429911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Friday" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Monday" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Friday!$A$1:$AQ$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Friday!$A$1:$BD$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Monday!$A$1:$BD$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Thursday!$A$1:$BD$14</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Tuesday!$A$1:$BD$14</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="118">
   <si>
     <t>07:00</t>
   </si>
@@ -492,7 +492,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,16 +576,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -872,245 +872,284 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ12"/>
+  <dimension ref="A1:BD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT5" sqref="AT5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="43" width="9.1640625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="AV1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" ht="70" customHeight="1">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="3">
         <v>200</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="AA2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="AB2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AC2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AD2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AF2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AG2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AI2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
@@ -1118,8 +1157,21 @@
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:43" ht="70" customHeight="1">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -1130,58 +1182,58 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="U3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="V3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="W3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="X3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="Z3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -1199,8 +1251,21 @@
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
       <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:43" ht="70" customHeight="1">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -1211,93 +1276,106 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="X4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="Z4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AK4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AL4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AM4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AN4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AO4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AP4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
       <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:43" ht="70" customHeight="1">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -1328,11 +1406,11 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
-      <c r="AA5" s="6"/>
+      <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
+      <c r="AE5" s="8"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
@@ -1345,8 +1423,21 @@
       <c r="AO5" s="4"/>
       <c r="AP5" s="4"/>
       <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:43" ht="70" customHeight="1">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -1394,8 +1485,21 @@
       <c r="AO6" s="4"/>
       <c r="AP6" s="4"/>
       <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:43" ht="70" customHeight="1">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1406,58 +1510,58 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="N7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="O7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="Q7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="R7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="S7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="T7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="U7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="V7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="W7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="X7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="Y7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="Z7" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -1475,1198 +1579,9 @@
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
-    </row>
-    <row r="8" spans="1:43" ht="70" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="3">
-        <v>40</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="T8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
-      <c r="AB8" s="4"/>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="4"/>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="4"/>
-      <c r="AG8" s="4"/>
-      <c r="AH8" s="4"/>
-      <c r="AI8" s="4"/>
-      <c r="AJ8" s="4"/>
-      <c r="AK8" s="4"/>
-      <c r="AL8" s="4"/>
-      <c r="AM8" s="4"/>
-      <c r="AN8" s="4"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-    </row>
-    <row r="9" spans="1:43" ht="70" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
-      <c r="AB9" s="4"/>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="4"/>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="4"/>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="4"/>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4"/>
-      <c r="AK9" s="4"/>
-      <c r="AL9" s="4"/>
-      <c r="AM9" s="4"/>
-      <c r="AN9" s="4"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-    </row>
-    <row r="10" spans="1:43" ht="70" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="3">
-        <v>41</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="4"/>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="4"/>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="4"/>
-      <c r="AG10" s="4"/>
-      <c r="AH10" s="4"/>
-      <c r="AI10" s="4"/>
-      <c r="AJ10" s="4"/>
-      <c r="AK10" s="4"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="4"/>
-      <c r="AN10" s="4"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-    </row>
-    <row r="11" spans="1:43" ht="70" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3">
-        <v>200</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AM11" s="4"/>
-      <c r="AN11" s="4"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-    </row>
-    <row r="12" spans="1:43" ht="70" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="3">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="65">
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BFCF80-D090-4208-B81A-02CB3F9572DA}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BD12"/>
-  <sheetViews>
-    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.6640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:56">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-    </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="3">
-        <v>100</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="V3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="W3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="X3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z3" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AF3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AG3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="AM3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AO3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AR3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AS3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT3" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="4"/>
-    </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="3">
-        <v>100</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="S4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="V4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="W4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AK4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AP4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AQ4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AS4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT4" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="4"/>
-    </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="3">
-        <v>150</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BC5" s="4"/>
-      <c r="BD5" s="4"/>
-    </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="3">
-        <v>21</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="W6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="X6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="4"/>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AE6" s="4"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AS6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-    </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="3">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="R7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
-      <c r="AB7" s="4"/>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AE7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AK7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AO7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AR7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS7" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AT7" s="7" t="s">
-        <v>112</v>
-      </c>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
       <c r="AW7" s="4"/>
@@ -2678,7 +1593,7 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -2693,38 +1608,54 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="4"/>
+      <c r="K8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>88</v>
+      </c>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -2756,7 +1687,7 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -2818,7 +1749,7 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -2829,70 +1760,54 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="T10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="W10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>105</v>
-      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK10" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
@@ -2912,7 +1827,7 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -2927,80 +1842,72 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="X11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z11" s="7" t="s">
-        <v>97</v>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="7" t="s">
+      <c r="AE11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AH11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AJ11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AK11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AL11" s="5" t="s">
         <v>106</v>
       </c>
       <c r="AM11" s="4"/>
@@ -3022,7 +1929,1282 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="3">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="AX12" s="4"/>
+      <c r="AY12" s="4"/>
+      <c r="AZ12" s="4"/>
+      <c r="BA12" s="4"/>
+      <c r="BB12" s="4"/>
+      <c r="BC12" s="4"/>
+      <c r="BD12" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="65">
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BFCF80-D090-4208-B81A-02CB3F9572DA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BD12"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="3">
+        <v>200</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+    </row>
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+    </row>
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AP4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+    </row>
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="3">
+        <v>150</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+    </row>
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="3">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AT6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
+      <c r="BA6" s="4"/>
+      <c r="BB6" s="4"/>
+      <c r="BC6" s="4"/>
+      <c r="BD6" s="4"/>
+    </row>
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="AX7" s="4"/>
+      <c r="AY7" s="4"/>
+      <c r="AZ7" s="4"/>
+      <c r="BA7" s="4"/>
+      <c r="BB7" s="4"/>
+      <c r="BC7" s="4"/>
+      <c r="BD7" s="4"/>
+    </row>
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+      <c r="AM8" s="4"/>
+      <c r="AN8" s="4"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="AX8" s="4"/>
+      <c r="AY8" s="4"/>
+      <c r="AZ8" s="4"/>
+      <c r="BA8" s="4"/>
+      <c r="BB8" s="4"/>
+      <c r="BC8" s="4"/>
+      <c r="BD8" s="4"/>
+    </row>
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="AX9" s="4"/>
+      <c r="AY9" s="4"/>
+      <c r="AZ9" s="4"/>
+      <c r="BA9" s="4"/>
+      <c r="BB9" s="4"/>
+      <c r="BC9" s="4"/>
+      <c r="BD9" s="4"/>
+    </row>
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3">
+        <v>41</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="AX10" s="4"/>
+      <c r="AY10" s="4"/>
+      <c r="AZ10" s="4"/>
+      <c r="BA10" s="4"/>
+      <c r="BB10" s="4"/>
+      <c r="BC10" s="4"/>
+      <c r="BD10" s="4"/>
+    </row>
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="3">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="U11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z11" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM11" s="4"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="AX11" s="4"/>
+      <c r="AY11" s="4"/>
+      <c r="AZ11" s="4"/>
+      <c r="BA11" s="4"/>
+      <c r="BB11" s="4"/>
+      <c r="BC11" s="4"/>
+      <c r="BD11" s="4"/>
+    </row>
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -3087,34 +3269,46 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="84">
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="AQ3:AR3"/>
+    <mergeCell ref="AS3:AT3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
+    <mergeCell ref="AO3:AP3"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AO4:AP4"/>
     <mergeCell ref="AQ6:AR6"/>
     <mergeCell ref="AS6:AT6"/>
     <mergeCell ref="K7:L7"/>
@@ -3131,46 +3325,34 @@
     <mergeCell ref="Y6:Z6"/>
     <mergeCell ref="AM6:AN6"/>
     <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ3:AR3"/>
-    <mergeCell ref="AS3:AT3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AO3:AP3"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -3189,14 +3371,14 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3360,7 +3542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -3371,86 +3553,86 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AK2" s="4"/>
@@ -3474,7 +3656,7 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -3489,80 +3671,80 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="5" t="s">
         <v>98</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="AM3" s="4"/>
@@ -3584,7 +3766,7 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -3599,104 +3781,104 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AQ4" s="7" t="s">
+      <c r="AQ4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AR4" s="7" t="s">
+      <c r="AR4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AS4" s="7" t="s">
+      <c r="AS4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="AT4" s="7" t="s">
+      <c r="AT4" s="5" t="s">
         <v>100</v>
       </c>
       <c r="AU4" s="4"/>
@@ -3710,7 +3892,7 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -3772,7 +3954,7 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -3787,28 +3969,28 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="5" t="s">
         <v>101</v>
       </c>
       <c r="S6" s="4"/>
@@ -3850,7 +4032,7 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -3873,80 +4055,80 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="5" t="s">
         <v>102</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AK7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="7" t="s">
+      <c r="AM7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AN7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO7" s="7" t="s">
+      <c r="AO7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AP7" s="7" t="s">
+      <c r="AP7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AQ7" s="7" t="s">
+      <c r="AQ7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AR7" s="7" t="s">
+      <c r="AR7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AS7" s="7" t="s">
+      <c r="AS7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AT7" s="7" t="s">
+      <c r="AT7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AU7" s="4"/>
@@ -3960,7 +4142,7 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -3995,34 +4177,34 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="8" t="s">
+      <c r="AE8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AF8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AG8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AH8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AI8" s="8" t="s">
+      <c r="AI8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AJ8" s="8" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AK8" s="8" t="s">
+      <c r="AK8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AL8" s="8" t="s">
+      <c r="AL8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AM8" s="8" t="s">
+      <c r="AM8" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AN8" s="8" t="s">
+      <c r="AN8" s="6" t="s">
         <v>104</v>
       </c>
       <c r="AO8" s="4"/>
@@ -4042,7 +4224,7 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -4104,7 +4286,7 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -4127,56 +4309,56 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="7" t="s">
+      <c r="AE10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AF10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AG10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AH10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AI10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AJ10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AK10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="5" t="s">
         <v>105</v>
       </c>
       <c r="AM10" s="4"/>
@@ -4198,7 +4380,7 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -4213,104 +4395,104 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="4"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
-      <c r="AE11" s="7" t="s">
+      <c r="AE11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AH11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AJ11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AK11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AL11" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AM11" s="7" t="s">
+      <c r="AM11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AN11" s="7" t="s">
+      <c r="AN11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AO11" s="7" t="s">
+      <c r="AO11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AP11" s="7" t="s">
+      <c r="AP11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AQ11" s="7" t="s">
+      <c r="AQ11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AR11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AS11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AT11" s="5" t="s">
         <v>107</v>
       </c>
       <c r="AU11" s="4"/>
@@ -4324,7 +4506,7 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -4389,70 +4571,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="86">
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AS7:AT7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AP7"/>
-    <mergeCell ref="AQ7:AR7"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AQ4:AR4"/>
-    <mergeCell ref="AS4:AT4"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
     <mergeCell ref="AI2:AJ2"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:N3"/>
@@ -4469,12 +4593,70 @@
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AQ4:AR4"/>
+    <mergeCell ref="AS4:AT4"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AS7:AT7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AP7"/>
+    <mergeCell ref="AQ7:AR7"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -4493,14 +4675,14 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4664,7 +4846,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
@@ -4675,116 +4857,116 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>77</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="7" t="s">
+      <c r="AK2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AL2" s="7" t="s">
+      <c r="AL2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AM2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AN2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AO2" s="7" t="s">
+      <c r="AO2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AP2" s="7" t="s">
+      <c r="AP2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AQ2" s="7" t="s">
+      <c r="AQ2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AR2" s="7" t="s">
+      <c r="AR2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" s="7" t="s">
+      <c r="AS2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AT2" s="7" t="s">
+      <c r="AT2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="AU2" s="4"/>
@@ -4798,7 +4980,7 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
@@ -4813,104 +4995,104 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="5" t="s">
         <v>81</v>
       </c>
       <c r="AA3" s="4"/>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AM3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AN3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AO3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AS3" s="7" t="s">
+      <c r="AS3" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AT3" s="7" t="s">
+      <c r="AT3" s="5" t="s">
         <v>82</v>
       </c>
       <c r="AU3" s="4"/>
@@ -4924,7 +5106,7 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
@@ -4939,80 +5121,80 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="M4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Z4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="5" t="s">
         <v>85</v>
       </c>
       <c r="AM4" s="4"/>
@@ -5034,7 +5216,7 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -5069,40 +5251,40 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="8" t="s">
+      <c r="AE5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AF5" s="8" t="s">
+      <c r="AF5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AG5" s="8" t="s">
+      <c r="AG5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AH5" s="8" t="s">
+      <c r="AH5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AI5" s="8" t="s">
+      <c r="AI5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AJ5" s="8" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AK5" s="8" t="s">
+      <c r="AK5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AL5" s="8" t="s">
+      <c r="AL5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AM5" s="8" t="s">
+      <c r="AM5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AN5" s="8" t="s">
+      <c r="AN5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AO5" s="8" t="s">
+      <c r="AO5" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AP5" s="8" t="s">
+      <c r="AP5" s="6" t="s">
         <v>86</v>
       </c>
       <c r="AQ5" s="4"/>
@@ -5120,7 +5302,7 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
@@ -5182,7 +5364,7 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -5197,80 +5379,80 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R7" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
-      <c r="AE7" s="7" t="s">
+      <c r="AE7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AK7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL7" s="5" t="s">
         <v>89</v>
       </c>
       <c r="AM7" s="4"/>
@@ -5292,7 +5474,7 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -5307,28 +5489,28 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="7" t="s">
+      <c r="M8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="N8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="O8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Q8" s="7" t="s">
+      <c r="Q8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="R8" s="7" t="s">
+      <c r="R8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="S8" s="4"/>
@@ -5343,40 +5525,40 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
-      <c r="AE8" s="7" t="s">
+      <c r="AE8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AF8" s="7" t="s">
+      <c r="AF8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AG8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AH8" s="7" t="s">
+      <c r="AH8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AI8" s="7" t="s">
+      <c r="AI8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AJ8" s="7" t="s">
+      <c r="AJ8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AK8" s="7" t="s">
+      <c r="AK8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AL8" s="7" t="s">
+      <c r="AL8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AM8" s="7" t="s">
+      <c r="AM8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AN8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AO8" s="7" t="s">
+      <c r="AO8" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AP8" s="7" t="s">
+      <c r="AP8" s="5" t="s">
         <v>90</v>
       </c>
       <c r="AQ8" s="4"/>
@@ -5394,7 +5576,7 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
@@ -5456,7 +5638,7 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -5471,76 +5653,76 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="N10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="W10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="X10" s="7" t="s">
+      <c r="X10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Y10" s="7" t="s">
+      <c r="Y10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" s="7" t="s">
+      <c r="Z10" s="5" t="s">
         <v>91</v>
       </c>
       <c r="AA10" s="4"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
-      <c r="AE10" s="7" t="s">
+      <c r="AE10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AF10" s="7" t="s">
+      <c r="AF10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AG10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AH10" s="7" t="s">
+      <c r="AH10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AI10" s="7" t="s">
+      <c r="AI10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AJ10" s="7" t="s">
+      <c r="AJ10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AK10" s="7" t="s">
+      <c r="AK10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="5" t="s">
         <v>92</v>
       </c>
       <c r="AM10" s="4"/>
@@ -5562,7 +5744,7 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
@@ -5577,112 +5759,112 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="N11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AA11" s="7" t="s">
+      <c r="AA11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AB11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AC11" s="7" t="s">
+      <c r="AC11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AD11" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AE11" s="7" t="s">
+      <c r="AE11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AF11" s="7" t="s">
+      <c r="AF11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AG11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AH11" s="7" t="s">
+      <c r="AH11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AI11" s="7" t="s">
+      <c r="AI11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AJ11" s="7" t="s">
+      <c r="AJ11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AK11" s="7" t="s">
+      <c r="AK11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AL11" s="7" t="s">
+      <c r="AL11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AM11" s="7" t="s">
+      <c r="AM11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AN11" s="7" t="s">
+      <c r="AN11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AO11" s="7" t="s">
+      <c r="AO11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AP11" s="7" t="s">
+      <c r="AP11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AQ11" s="7" t="s">
+      <c r="AQ11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AR11" s="7" t="s">
+      <c r="AR11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AS11" s="7" t="s">
+      <c r="AS11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AT11" s="7" t="s">
+      <c r="AT11" s="5" t="s">
         <v>96</v>
       </c>
       <c r="AU11" s="4"/>
@@ -5696,7 +5878,7 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
@@ -5761,69 +5943,24 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="103">
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="AS11:AT11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="AQ11:AR11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AP8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AL2"/>
+    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="AO3:AP3"/>
     <mergeCell ref="AQ3:AR3"/>
@@ -5846,24 +5983,69 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AO2:AP2"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="AS2:AT2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AL2"/>
-    <mergeCell ref="AM2:AN2"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AP8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="AS11:AT11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="AQ11:AR11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
@@ -5882,14 +6064,14 @@
       <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="56" width="9.1640625" style="1" customWidth="1"/>
-    <col min="57" max="16384" width="8.6640625" style="1"/>
+    <col min="3" max="56" width="9.1796875" style="1" customWidth="1"/>
+    <col min="57" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6053,97 +6235,97 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:56" ht="70" customHeight="1">
+    <row r="2" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="7">
         <v>200</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Z2" s="5" t="s">
         <v>56</v>
       </c>
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
       <c r="AD2" s="4"/>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AF2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AG2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AI2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="AJ2" s="7" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="AK2" s="4"/>
@@ -6167,11 +6349,11 @@
       <c r="BC2" s="4"/>
       <c r="BD2" s="4"/>
     </row>
-    <row r="3" spans="1:56" ht="70" customHeight="1">
+    <row r="3" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>100</v>
       </c>
       <c r="C3" s="4"/>
@@ -6182,28 +6364,28 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>59</v>
       </c>
       <c r="S3" s="4"/>
@@ -6218,28 +6400,28 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4"/>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="5" t="s">
         <v>60</v>
       </c>
       <c r="AM3" s="4"/>
@@ -6261,11 +6443,11 @@
       <c r="BC3" s="4"/>
       <c r="BD3" s="4"/>
     </row>
-    <row r="4" spans="1:56" ht="70" customHeight="1">
+    <row r="4" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="7">
         <v>100</v>
       </c>
       <c r="C4" s="4"/>
@@ -6296,40 +6478,40 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4"/>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AH4" s="7" t="s">
+      <c r="AH4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AI4" s="7" t="s">
+      <c r="AI4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="7" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AK4" s="7" t="s">
+      <c r="AK4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AL4" s="7" t="s">
+      <c r="AL4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AM4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AN4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AO4" s="7" t="s">
+      <c r="AO4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="AP4" s="7" t="s">
+      <c r="AP4" s="5" t="s">
         <v>62</v>
       </c>
       <c r="AQ4" s="4"/>
@@ -6347,11 +6529,11 @@
       <c r="BC4" s="4"/>
       <c r="BD4" s="4"/>
     </row>
-    <row r="5" spans="1:56" ht="70" customHeight="1">
+    <row r="5" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>150</v>
       </c>
       <c r="C5" s="4"/>
@@ -6409,11 +6591,11 @@
       <c r="BC5" s="4"/>
       <c r="BD5" s="4"/>
     </row>
-    <row r="6" spans="1:56" ht="70" customHeight="1">
+    <row r="6" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="7">
         <v>21</v>
       </c>
       <c r="C6" s="4"/>
@@ -6452,28 +6634,28 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
       <c r="AL6" s="4"/>
-      <c r="AM6" s="7" t="s">
+      <c r="AM6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AN6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AO6" s="7" t="s">
+      <c r="AO6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AP6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AR6" s="7" t="s">
+      <c r="AR6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AS6" s="7" t="s">
+      <c r="AS6" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AT6" s="7" t="s">
+      <c r="AT6" s="5" t="s">
         <v>65</v>
       </c>
       <c r="AU6" s="4"/>
@@ -6487,11 +6669,11 @@
       <c r="BC6" s="4"/>
       <c r="BD6" s="4"/>
     </row>
-    <row r="7" spans="1:56" ht="70" customHeight="1">
+    <row r="7" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>36</v>
       </c>
       <c r="C7" s="4"/>
@@ -6549,11 +6731,11 @@
       <c r="BC7" s="4"/>
       <c r="BD7" s="4"/>
     </row>
-    <row r="8" spans="1:56" ht="70" customHeight="1">
+    <row r="8" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="7">
         <v>40</v>
       </c>
       <c r="C8" s="4"/>
@@ -6572,28 +6754,28 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="7" t="s">
+      <c r="S8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="T8" s="7" t="s">
+      <c r="T8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="V8" s="7" t="s">
+      <c r="V8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="W8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="X8" s="7" t="s">
+      <c r="X8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="7" t="s">
+      <c r="Y8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="7" t="s">
+      <c r="Z8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="AA8" s="4"/>
@@ -6627,11 +6809,11 @@
       <c r="BC8" s="4"/>
       <c r="BD8" s="4"/>
     </row>
-    <row r="9" spans="1:56" ht="70" customHeight="1">
+    <row r="9" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="7">
         <v>20</v>
       </c>
       <c r="C9" s="4"/>
@@ -6689,11 +6871,11 @@
       <c r="BC9" s="4"/>
       <c r="BD9" s="4"/>
     </row>
-    <row r="10" spans="1:56" ht="70" customHeight="1">
+    <row r="10" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="7">
         <v>41</v>
       </c>
       <c r="C10" s="4"/>
@@ -6710,22 +6892,22 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="W10" s="4"/>
@@ -6763,11 +6945,11 @@
       <c r="BC10" s="4"/>
       <c r="BD10" s="4"/>
     </row>
-    <row r="11" spans="1:56" ht="70" customHeight="1">
+    <row r="11" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>200</v>
       </c>
       <c r="C11" s="4"/>
@@ -6786,28 +6968,28 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="7" t="s">
+      <c r="Y11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="7" t="s">
+      <c r="Z11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="AA11" s="4"/>
@@ -6841,135 +7023,135 @@
       <c r="BC11" s="4"/>
       <c r="BD11" s="4"/>
     </row>
-    <row r="12" spans="1:56" ht="70" customHeight="1">
+    <row r="12" spans="1:56" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="7">
         <v>24</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="L12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="M12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="P12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="Q12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="R12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="S12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="T12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="U12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="V12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="W12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="X12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Y12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="Z12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA12" s="8" t="s">
+      <c r="AA12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AB12" s="8" t="s">
+      <c r="AB12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AC12" s="8" t="s">
+      <c r="AC12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AD12" s="8" t="s">
+      <c r="AD12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AE12" s="8" t="s">
+      <c r="AE12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AF12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AG12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AH12" s="8" t="s">
+      <c r="AH12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AI12" s="8" t="s">
+      <c r="AI12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AJ12" s="8" t="s">
+      <c r="AJ12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AK12" s="8" t="s">
+      <c r="AK12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AL12" s="8" t="s">
+      <c r="AL12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AM12" s="8" t="s">
+      <c r="AM12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AN12" s="8" t="s">
+      <c r="AN12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AO12" s="8" t="s">
+      <c r="AO12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AP12" s="8" t="s">
+      <c r="AP12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AQ12" s="8" t="s">
+      <c r="AQ12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AR12" s="8" t="s">
+      <c r="AR12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AS12" s="8" t="s">
+      <c r="AS12" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AT12" s="8" t="s">
+      <c r="AT12" s="6" t="s">
         <v>75</v>
       </c>
       <c r="AU12" s="4"/>
@@ -6986,12 +7168,46 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="62">
-    <mergeCell ref="AS12:AT12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AP12"/>
-    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AP6"/>
+    <mergeCell ref="AQ6:AR6"/>
+    <mergeCell ref="AS6:AT6"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
     <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="Y11:Z11"/>
     <mergeCell ref="G12:H12"/>
@@ -7008,46 +7224,12 @@
     <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AP6"/>
-    <mergeCell ref="AQ6:AR6"/>
-    <mergeCell ref="AS6:AT6"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="W2:X2"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO12:AP12"/>
+    <mergeCell ref="AQ12:AR12"/>
+    <mergeCell ref="AS12:AT12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
